--- a/comparison_results/PSO_PID_With_Disturbance_Test_3.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_3.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03659291943890289</v>
+        <v>0.03866966182357312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.980980980980981</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.328469224389361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6506506506506506</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02091721209411293</v>
+        <v>0.02261809382786571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2645216954328993</v>
+        <v>0.2678922138281588</v>
       </c>
       <c r="H2" t="n">
-        <v>1.025744643112391</v>
+        <v>1.025756738187095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3532797623704655</v>
+        <v>0.3536855469976473</v>
       </c>
       <c r="J2" t="n">
-        <v>12.25628152394181</v>
+        <v>12.0308521844084</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9864382999695426</v>
+        <v>0.9849001639303574</v>
       </c>
       <c r="L2" t="n">
-        <v>4.999870795819499</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>9.432606255869979</v>
+        <v>1.331685869623969</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05051332089581385</v>
+        <v>0.002635188011262085</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5822823317810084</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5052613806692124</v>
+        <v>0.9905323891420803</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06504412848719276</v>
+        <v>0.001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7202177694963582</v>
+        <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>4.730566995868415</v>
+        <v>4.27682467374755</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03586468291744257</v>
+        <v>0.001254072963018886</v>
       </c>
       <c r="U2" t="n">
-        <v>1.986717466440802</v>
+        <v>1.996351436743321</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0357658999050264</v>
+        <v>0.03603698030476681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.960960960960961</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06997703788214071</v>
+        <v>0.03766609050148695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01793105012427138</v>
+        <v>0.01711934347954171</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2541020437947432</v>
+        <v>0.2588045938376103</v>
       </c>
       <c r="H3" t="n">
-        <v>0.992140956484963</v>
+        <v>0.9992934094212502</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3513643870502173</v>
+        <v>0.3529836769711102</v>
       </c>
       <c r="J3" t="n">
-        <v>12.31590924240612</v>
+        <v>12.21833132649763</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9884217221886966</v>
+        <v>0.989872290296181</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1033509914312392</v>
+        <v>0.2699919899966058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09191344704497116</v>
+        <v>0.0787425786310062</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08211738817601</v>
+        <v>0.895507883673847</v>
       </c>
       <c r="P3" t="n">
-        <v>4.041320212428961</v>
+        <v>9.999732668863553</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02939997466778835</v>
+        <v>0.02753491528516522</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8119298289741264</v>
+        <v>0.6508456706871242</v>
       </c>
       <c r="S3" t="n">
-        <v>2.496790962072128</v>
+        <v>5.881961557254894</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08129691331569325</v>
+        <v>0.06464674934331884</v>
       </c>
       <c r="U3" t="n">
-        <v>1.218494371150836</v>
+        <v>0.1374114723806833</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04253691728585682</v>
+        <v>0.039300434779133</v>
       </c>
       <c r="C4" t="n">
-        <v>1.091091091091091</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D4" t="n">
-        <v>1.325293535618588</v>
+        <v>1.326179689887397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01829877525159613</v>
+        <v>0.01863908429544318</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3088945415011746</v>
+        <v>0.271794531735415</v>
       </c>
       <c r="H4" t="n">
-        <v>1.080742742919385</v>
+        <v>1.013165892608393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.368223591536963</v>
+        <v>0.3573961010288467</v>
       </c>
       <c r="J4" t="n">
-        <v>10.75484940983536</v>
+        <v>11.67281162681365</v>
       </c>
       <c r="K4" t="n">
-        <v>0.990413587539281</v>
+        <v>0.9899802378862644</v>
       </c>
       <c r="L4" t="n">
-        <v>4.998997027312899</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>9.104761858240693</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008097015440868426</v>
+        <v>0.09217777610539968</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11715130979345</v>
+        <v>1.999998570488254</v>
       </c>
       <c r="P4" t="n">
-        <v>6.222516819881474</v>
+        <v>4.9561462713803</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001062978352765695</v>
+        <v>0.0876627192065354</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8725571134191459</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2018123587356251</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09864674923380987</v>
+        <v>0.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.952372305049964</v>
+        <v>1.744338701052316</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03850828272178963</v>
+        <v>0.05086910715762099</v>
       </c>
       <c r="C5" t="n">
-        <v>1.041041041041041</v>
+        <v>1.361361361361361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2684431483365168</v>
+        <v>0.7379455721693517</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.900900900900901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01792447375824115</v>
+        <v>0.01628746442899266</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2821689930038711</v>
+        <v>0.4472825427036385</v>
       </c>
       <c r="H5" t="n">
-        <v>1.030504109751503</v>
+        <v>1.298819568655549</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3603985625409484</v>
+        <v>0.402808230976989</v>
       </c>
       <c r="J5" t="n">
-        <v>11.4579600389138</v>
+        <v>7.747208073826767</v>
       </c>
       <c r="K5" t="n">
-        <v>0.990784759137188</v>
+        <v>0.9974397071732082</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.147239944608738</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>9.989338338243648</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09621421201803836</v>
+        <v>0.1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0.8477441942217347</v>
       </c>
       <c r="P5" t="n">
-        <v>7.083478726365464</v>
+        <v>4.853072265726367</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08619412417533402</v>
+        <v>0.09256450636053447</v>
       </c>
       <c r="R5" t="n">
-        <v>1.230456948249683</v>
+        <v>0.8688363300669913</v>
       </c>
       <c r="S5" t="n">
         <v>0.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09383592359897916</v>
+        <v>0.06809608319658167</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4714222467691048</v>
+        <v>0.1494673684978758</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06473537485252608</v>
+        <v>0.06328978052741042</v>
       </c>
       <c r="C6" t="n">
-        <v>2.032032032032032</v>
+        <v>2.022022022022022</v>
       </c>
       <c r="D6" t="n">
-        <v>4.364233610104229</v>
+        <v>4.01859591500715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01477840612768369</v>
+        <v>0.01155720525139539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2145259446726011</v>
+        <v>0.2052849276779919</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9386074215760911</v>
+        <v>0.9053625793925146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3316167549197169</v>
+        <v>0.3318485291481938</v>
       </c>
       <c r="J6" t="n">
-        <v>14.93458565031965</v>
+        <v>14.83988159251774</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9900447714681506</v>
+        <v>0.99352358739178</v>
       </c>
       <c r="L6" t="n">
-        <v>4.962856588037782</v>
+        <v>4.999983326230519</v>
       </c>
       <c r="M6" t="n">
-        <v>2.677572247406256</v>
+        <v>8.908025998867208</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001028119495401595</v>
+        <v>0.04899437530615614</v>
       </c>
       <c r="O6" t="n">
-        <v>1.996807746220943</v>
+        <v>0.9307003631281724</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>8.714897189820434</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0873464094076719</v>
+        <v>0.04486144164113962</v>
       </c>
       <c r="R6" t="n">
-        <v>1.029532165025411</v>
+        <v>0.8963281205707803</v>
       </c>
       <c r="S6" t="n">
-        <v>8.202680262266613</v>
+        <v>0.9628198788135752</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1</v>
+        <v>0.7373909077620823</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03647037474470299</v>
+        <v>0.04055421226836165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9409409409409409</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4518859625966209</v>
+        <v>1.028312554966537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6206206206206206</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02931831155476894</v>
+        <v>0.02339565135798167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2621230703727976</v>
+        <v>0.2938006294029066</v>
       </c>
       <c r="H7" t="n">
-        <v>1.011669705230277</v>
+        <v>1.074277517426034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3500123435474392</v>
+        <v>0.3623607173750627</v>
       </c>
       <c r="J7" t="n">
-        <v>12.47763746844676</v>
+        <v>11.222060575977</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9799111285591598</v>
+        <v>0.9849325018025831</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3782156816901357</v>
+        <v>8.35094358454316</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002101490838588882</v>
+        <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>1.468110320280035</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1</v>
+        <v>0.9653918017984091</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9922533546202683</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1379338427417864</v>
+        <v>0.3170033036768907</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05206999422000468</v>
+        <v>0.05217189050282917</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0.317478574877011</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03618015314617029</v>
+        <v>0.03828568845899503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.980980980980981</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.152612676851005</v>
+        <v>0.5710460911705573</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01747954989534129</v>
+        <v>0.02378627662435742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2573918685040681</v>
+        <v>0.2757351711339716</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9807304641216167</v>
+        <v>1.03127768198867</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3531581846898494</v>
+        <v>0.3572316631609804</v>
       </c>
       <c r="J8" t="n">
-        <v>12.0895729250431</v>
+        <v>11.72492291435486</v>
       </c>
       <c r="K8" t="n">
-        <v>0.989246837541775</v>
+        <v>0.9855283303049824</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1251521810028771</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
         <v>0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.161332005468543</v>
+        <v>1.658528201879284</v>
       </c>
       <c r="P8" t="n">
-        <v>2.126263935633955</v>
+        <v>5.867822159167341</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004600530640047164</v>
+        <v>0.001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5745187098594243</v>
+        <v>0.9183724466621078</v>
       </c>
       <c r="S8" t="n">
-        <v>4.338168966220548</v>
+        <v>3.759613536288933</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02282241507558377</v>
+        <v>0.01151417217862735</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2043623371978317</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04327607845064486</v>
+        <v>0.03619231626442855</v>
       </c>
       <c r="C9" t="n">
-        <v>1.101101101101101</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D9" t="n">
-        <v>1.516142366957629</v>
+        <v>0.06270424019714227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01647773897776668</v>
+        <v>0.01862754770413214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3146253251857697</v>
+        <v>0.261168088317156</v>
       </c>
       <c r="H9" t="n">
-        <v>1.088934649572864</v>
+        <v>0.9920186423007807</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3700811124595726</v>
+        <v>0.3538094917135219</v>
       </c>
       <c r="J9" t="n">
-        <v>10.74221327252962</v>
+        <v>12.03107875056875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9925894413193869</v>
+        <v>0.9902208017201484</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>3.090955146846803</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001</v>
+        <v>0.02972252393059677</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1</v>
+        <v>0.9720322405004741</v>
       </c>
       <c r="P9" t="n">
-        <v>9.984710533450917</v>
+        <v>0.2442931997490824</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001</v>
+        <v>0.07871772569577189</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7414696273548469</v>
+        <v>0.9790172166006776</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5.618648404138059</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001</v>
+        <v>0.07120446811496629</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2680495162254967</v>
+        <v>1.71263042969827</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03908452246259366</v>
+        <v>0.03632693333854699</v>
       </c>
       <c r="C10" t="n">
-        <v>1.021021021021021</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6790461864671471</v>
+        <v>0.05199550906607175</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02260753247447538</v>
+        <v>0.01743855643768514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2846318834890411</v>
+        <v>0.262255926289613</v>
       </c>
       <c r="H10" t="n">
-        <v>1.039881224553647</v>
+        <v>0.9886391295238237</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3602339398794022</v>
+        <v>0.3545152296439822</v>
       </c>
       <c r="J10" t="n">
-        <v>11.48106218522974</v>
+        <v>11.95232454144448</v>
       </c>
       <c r="K10" t="n">
-        <v>0.970465567434036</v>
+        <v>0.9938524907639491</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1</v>
+        <v>0.3457421763319292</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001</v>
+        <v>0.07869385878360716</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1.211468801143471</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1356061201000483</v>
+        <v>2.402185413027456</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09991528738430748</v>
+        <v>0.03968036637401618</v>
       </c>
       <c r="R10" t="n">
-        <v>1.972133224721572</v>
+        <v>0.623431943032527</v>
       </c>
       <c r="S10" t="n">
-        <v>9.999997373233416</v>
+        <v>1.844194181656944</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1</v>
+        <v>0.05685838596600604</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1000690436672103</v>
+        <v>1.55965711018481</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03577673451570797</v>
+        <v>0.07033625620733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.970970970970971</v>
+        <v>2.182182182182182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007870436560386551</v>
+        <v>5.278599798379413</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01901463999937627</v>
+        <v>0.01519896892841436</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2547532701974103</v>
+        <v>0.2352287761473694</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9875369734655546</v>
+        <v>0.9816026873362207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3512992981714183</v>
+        <v>0.3331986614281661</v>
       </c>
       <c r="J11" t="n">
-        <v>12.41462874839876</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9900354237564483</v>
+        <v>0.9737672288690453</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>8.695917186784865</v>
+        <v>2.599771015472496</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0999999790415739</v>
+        <v>0.001</v>
       </c>
       <c r="O11" t="n">
-        <v>1.216460117267732</v>
+        <v>1.045156724933614</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1093897083400155</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09917456605091207</v>
+        <v>0.001</v>
       </c>
       <c r="R11" t="n">
-        <v>1.111588607743287</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.787950549497852</v>
+        <v>9.992755170773643</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001595444258032171</v>
+        <v>0.08552306768890505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1006633360622218</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06883680948122732</v>
+        <v>0.03553902072718497</v>
       </c>
       <c r="C12" t="n">
-        <v>2.192192192192192</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D12" t="n">
-        <v>4.74295696758531</v>
+        <v>0.214964117784433</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01446183580607962</v>
+        <v>0.01620816851972219</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2159518699508309</v>
+        <v>0.2501062811872404</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9474226988338579</v>
+        <v>0.9726290523649094</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3312841540238754</v>
+        <v>0.35079657358956</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>12.32838968820192</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9927789566122435</v>
+        <v>0.9913541136593947</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5.926105097111574</v>
+        <v>2.991543149326719</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02229963878562255</v>
+        <v>0.0330045257900787</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43649258550976</v>
+        <v>1.421861000505406</v>
       </c>
       <c r="P12" t="n">
-        <v>3.293598174663337</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07630699430307615</v>
+        <v>0.1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7246829002536204</v>
+        <v>1.077792694508441</v>
       </c>
       <c r="S12" t="n">
-        <v>1.31736686190412</v>
+        <v>5.929120930855643</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1</v>
+        <v>0.09160464902717771</v>
       </c>
       <c r="U12" t="n">
-        <v>1.054690720962557</v>
+        <v>1.885770403288212</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03495886514757951</v>
+        <v>0.03564762848248864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.9409409409409409</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008509238147147435</v>
+        <v>0.02068938783439389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.6206206206206206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01760082176667531</v>
+        <v>0.02271808201897366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2457201378017458</v>
+        <v>0.2556651929016082</v>
       </c>
       <c r="H13" t="n">
-        <v>0.989927148390408</v>
+        <v>1.016895982039426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3469326825532604</v>
+        <v>0.3492889825275977</v>
       </c>
       <c r="J13" t="n">
-        <v>12.83938270086919</v>
+        <v>12.58018298697084</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9854727972604399</v>
+        <v>0.9849169077944612</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>3.060844573776718</v>
+        <v>0.1072567842141359</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03610370105379083</v>
+        <v>0.09122761260683011</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7119951188998779</v>
+        <v>0.8496973619934606</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1</v>
+        <v>8.194876250389006</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09688333350396819</v>
+        <v>0.003042444286038154</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9760239685321014</v>
+        <v>1.477243594875317</v>
       </c>
       <c r="S13" t="n">
         <v>0.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008511397343022378</v>
+        <v>0.02445632611559752</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1774288876210869</v>
+        <v>1.754349847271544</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05039158459470856</v>
+        <v>0.04253462232724819</v>
       </c>
       <c r="C14" t="n">
-        <v>1.461461461461461</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1039119451810011</v>
+        <v>0.9303660251063661</v>
       </c>
       <c r="E14" t="n">
-        <v>0.890890890890891</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0197714043008947</v>
+        <v>0.02118497652998431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3891199309955151</v>
+        <v>0.315016228429026</v>
       </c>
       <c r="H14" t="n">
-        <v>1.241320792609616</v>
+        <v>1.090758032269258</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3860421545830457</v>
+        <v>0.3694088700269423</v>
       </c>
       <c r="J14" t="n">
-        <v>9.530851699923145</v>
+        <v>10.73665635999978</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9928660850824853</v>
+        <v>0.9728171879240758</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>5.025628402127947</v>
+        <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07799620955033656</v>
+        <v>0.001</v>
       </c>
       <c r="O14" t="n">
-        <v>1.420091239389989</v>
+        <v>1.97532096581228</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2541090963669136</v>
+        <v>7.980378507439009</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08179489336827034</v>
+        <v>0.08967370717916975</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8941591504936508</v>
+        <v>1.807974048162314</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6979104778606827</v>
+        <v>7.049102960527446</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03590583311935504</v>
+        <v>0.03278590757757242</v>
       </c>
       <c r="U14" t="n">
-        <v>1.994915103168859</v>
+        <v>1.184492235865231</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03845444886661707</v>
+        <v>0.06466070561100669</v>
       </c>
       <c r="C15" t="n">
-        <v>1.031031031031031</v>
+        <v>2.052052052052052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2965725315233536</v>
+        <v>4.356367590531995</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02020307260352566</v>
+        <v>0.01401892856269867</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2825264878364245</v>
+        <v>0.2045452722525959</v>
       </c>
       <c r="H15" t="n">
-        <v>1.036368283728746</v>
+        <v>0.9119771836924049</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3601511995663307</v>
+        <v>0.3306573519013905</v>
       </c>
       <c r="J15" t="n">
-        <v>11.50520680978223</v>
+        <v>14.99120966113643</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9873713591591035</v>
+        <v>0.9909401150618562</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>9.981254390122107</v>
+        <v>4.723207325264547</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09969314425039476</v>
+        <v>0.02552544328681457</v>
       </c>
       <c r="O15" t="n">
-        <v>1.590860521752046</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1000194134646744</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0826342445461134</v>
+        <v>0.07662488182753861</v>
       </c>
       <c r="R15" t="n">
-        <v>1.596257183364833</v>
+        <v>1.033656196338167</v>
       </c>
       <c r="S15" t="n">
-        <v>7.415956780928508</v>
+        <v>0.1</v>
       </c>
       <c r="T15" t="n">
         <v>0.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.71109772534913</v>
+        <v>1.747093742860044</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03679611243666625</v>
+        <v>0.0357972923386503</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001001001001001</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.01920794992567032</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.6206206206206206</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01904871581925982</v>
+        <v>0.02317814160885057</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2673308315142945</v>
+        <v>0.2555953710746045</v>
       </c>
       <c r="H16" t="n">
-        <v>1.011473828504031</v>
+        <v>1.013752346222154</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3557496452014237</v>
+        <v>0.3496247787043799</v>
       </c>
       <c r="J16" t="n">
-        <v>11.7974253915318</v>
+        <v>12.53810492573434</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9874606613890176</v>
+        <v>0.9833796832225605</v>
       </c>
       <c r="L16" t="n">
-        <v>4.962181369769708</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1</v>
+        <v>0.1271000430870881</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1</v>
+        <v>0.09748644938378459</v>
       </c>
       <c r="O16" t="n">
-        <v>1.182318961870593</v>
+        <v>0.9415826216106793</v>
       </c>
       <c r="P16" t="n">
-        <v>2.937940357387284</v>
+        <v>5.344681202918499</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005927016808822551</v>
+        <v>0.001</v>
       </c>
       <c r="R16" t="n">
-        <v>1.081611651330736</v>
+        <v>1.212235279335526</v>
       </c>
       <c r="S16" t="n">
-        <v>2.076661728355373</v>
+        <v>4.043076070770367</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001</v>
+        <v>0.07363080007577011</v>
       </c>
       <c r="U16" t="n">
-        <v>1.393492227793469</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1520,61 +1520,61 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03542892251635367</v>
+        <v>0.03498385238657256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9509509509509509</v>
+        <v>0.9209209209209209</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1704157661860384</v>
+        <v>0.1668073969348427</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01553909425848635</v>
+        <v>0.02289892155693065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2483818745303243</v>
+        <v>0.2461934387192212</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9719187145187087</v>
+        <v>0.9836439027979422</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3500779941775017</v>
+        <v>0.3458129196804668</v>
       </c>
       <c r="J17" t="n">
-        <v>12.4413763527063</v>
+        <v>12.93752539607819</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9897900948544759</v>
+        <v>0.9900652405085164</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>3.544924925992185</v>
+        <v>0.2782621177995284</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04098930428565849</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8685278093824862</v>
+        <v>0.8055047416606453</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1004652670698962</v>
+        <v>3.418059513422357</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1</v>
+        <v>0.001001523339598896</v>
       </c>
       <c r="R17" t="n">
-        <v>1.108103350615209</v>
+        <v>0.306354733705571</v>
       </c>
       <c r="S17" t="n">
-        <v>7.91531497099915</v>
+        <v>4.512941931801398</v>
       </c>
       <c r="T17" t="n">
-        <v>0.08927748055364441</v>
+        <v>0.001</v>
       </c>
       <c r="U17" t="n">
         <v>0.1</v>
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03643156396303752</v>
+        <v>0.04161936674649806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.960960960960961</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06733515059178519</v>
+        <v>0.6911323997716101</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02575603711851856</v>
+        <v>0.01603926787319056</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2665082249097348</v>
+        <v>0.3030093682882598</v>
       </c>
       <c r="H18" t="n">
-        <v>1.031908339545088</v>
+        <v>1.06644155432019</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3527783531434346</v>
+        <v>0.3667402594096414</v>
       </c>
       <c r="J18" t="n">
-        <v>12.14267181918255</v>
+        <v>10.9388439445254</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9852832330504429</v>
+        <v>0.9927344681393275</v>
       </c>
       <c r="L18" t="n">
-        <v>4.991338860843857</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4028715252075862</v>
+        <v>3.592522341744079</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1</v>
+        <v>0.09906348963744693</v>
       </c>
       <c r="O18" t="n">
-        <v>1.802372204556436</v>
+        <v>1.381705400732375</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1233926694358079</v>
+        <v>6.377019056472332</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06696087257045213</v>
+        <v>0.06493170607014769</v>
       </c>
       <c r="R18" t="n">
-        <v>1.045501017208835</v>
+        <v>1.345660627687109</v>
       </c>
       <c r="S18" t="n">
-        <v>9.831306359538347</v>
+        <v>0.1766739716942335</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02302723586244606</v>
+        <v>0.06924254998629358</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.77402102484112</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04046137025508002</v>
+        <v>0.04008858745844081</v>
       </c>
       <c r="C19" t="n">
-        <v>1.021021021021021</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D19" t="n">
-        <v>1.304584961211508</v>
+        <v>0.7908554751639763</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02111376064190055</v>
+        <v>0.02665087481538211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2850244812557929</v>
+        <v>0.2938314067312185</v>
       </c>
       <c r="H19" t="n">
-        <v>1.048108868313455</v>
+        <v>1.074884496473661</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3602726431077518</v>
+        <v>0.3609120948751395</v>
       </c>
       <c r="J19" t="n">
-        <v>11.43768281638684</v>
+        <v>11.45567313597244</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9881470524507371</v>
+        <v>0.9849741987953807</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.983618719813797</v>
+        <v>5.864536124390623</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09655770118980232</v>
+        <v>0.001</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P19" t="n">
-        <v>5.621256639190293</v>
+        <v>1.188597147528046</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01742684309937127</v>
+        <v>0.004408544164892315</v>
       </c>
       <c r="R19" t="n">
-        <v>1.393485015124326</v>
+        <v>0.1021547529459202</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1062952691288757</v>
+        <v>0.471183517833386</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02677974449404097</v>
+        <v>0.0529269009569846</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5199926473500004</v>
+        <v>1.003172698773534</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03826125146695639</v>
+        <v>0.03559357570051323</v>
       </c>
       <c r="C20" t="n">
-        <v>1.031031031031031</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1728016591667103</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0199992876675993</v>
+        <v>0.01706449473695477</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2837766375376973</v>
+        <v>0.2499593884683739</v>
       </c>
       <c r="H20" t="n">
-        <v>1.039491180185077</v>
+        <v>0.9782933300189042</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3605626585661283</v>
+        <v>0.3500599129473241</v>
       </c>
       <c r="J20" t="n">
-        <v>11.37485166288556</v>
+        <v>12.50835423618835</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9899460046618082</v>
+        <v>0.9889701251718578</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.09920921689593795</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9731810229814333</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.77262449974026</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.08050096361301136</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.37498197397969</v>
+      </c>
+      <c r="S20" t="n">
         <v>10</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.005728261987797098</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.3025065970514207</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.04583243995141765</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.7502205809447188</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.1424879227060233</v>
-      </c>
       <c r="T20" t="n">
-        <v>0.09930782926081515</v>
+        <v>0.005931310067700267</v>
       </c>
       <c r="U20" t="n">
-        <v>1.574005083647403</v>
+        <v>0.8005542735525266</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03676533587813981</v>
+        <v>0.04136883013866566</v>
       </c>
       <c r="C21" t="n">
-        <v>0.980980980980981</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2494383816958212</v>
+        <v>0.7728087200165712</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6506506506506506</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01735006003872944</v>
+        <v>0.02502041425560917</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2641105548395907</v>
+        <v>0.3082991239292256</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0041450777394</v>
+        <v>1.103466435575716</v>
       </c>
       <c r="I21" t="n">
-        <v>0.355124219979267</v>
+        <v>0.3654586796579447</v>
       </c>
       <c r="J21" t="n">
-        <v>11.86803773710762</v>
+        <v>11.01495250815458</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9901744615540623</v>
+        <v>0.9695501061555926</v>
       </c>
       <c r="L21" t="n">
-        <v>4.99619182070803</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.114196641644044</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07115482447933205</v>
+        <v>0.001</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1.97921077384767</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1</v>
+        <v>1.04887069071792</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07633510974777942</v>
+        <v>0.001954255719530102</v>
       </c>
       <c r="R21" t="n">
-        <v>1.147345586295762</v>
+        <v>0.1</v>
       </c>
       <c r="S21" t="n">
-        <v>5.434506248044975</v>
+        <v>8.343102037952661</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1</v>
+        <v>0.001840266118561926</v>
       </c>
       <c r="U21" t="n">
-        <v>1.090270942100128</v>
+        <v>0.1034953278238186</v>
       </c>
     </row>
   </sheetData>
